--- a/trunk/Time Log for SAD + SEP/SEP-TimeLog-ToanDang.xlsx
+++ b/trunk/Time Log for SAD + SEP/SEP-TimeLog-ToanDang.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -181,11 +181,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +553,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,9 +593,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -684,7 +684,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -719,7 +718,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,14 +893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -919,19 +917,19 @@
     <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="D3" s="24"/>
       <c r="L3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -945,7 +943,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
       <c r="C5" s="26"/>
       <c r="L5" s="24" t="s">
         <v>13</v>
@@ -954,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="26.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,11 +988,11 @@
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62">
+    <row r="7" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A7" s="63">
         <v>2</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="67">
         <v>41062</v>
       </c>
       <c r="C7" s="47">
@@ -1020,9 +1018,9 @@
       </c>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67"/>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="47">
         <v>0.41666666666666669</v>
       </c>
@@ -1046,9 +1044,9 @@
       </c>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="67"/>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="64"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="47">
         <v>0.52777777777777779</v>
       </c>
@@ -1072,9 +1070,9 @@
       </c>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="67"/>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="47">
         <v>0.69097222222222221</v>
       </c>
@@ -1098,9 +1096,9 @@
       </c>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="68"/>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="64"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="47">
         <v>0.88541666666666663</v>
       </c>
@@ -1124,8 +1122,8 @@
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="64"/>
       <c r="B12" s="52">
         <v>41063</v>
       </c>
@@ -1154,8 +1152,8 @@
       </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="21" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+    <row r="13" spans="1:13" ht="21" hidden="1" customHeight="1" thickBot="1">
+      <c r="A13" s="64"/>
       <c r="B13" s="51"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1170,8 +1168,8 @@
       </c>
       <c r="M13" s="27"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+    <row r="14" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A14" s="64"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1186,8 +1184,8 @@
       </c>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+    <row r="15" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A15" s="64"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1202,8 +1200,8 @@
       </c>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+    <row r="16" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A16" s="64"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1215,8 +1213,8 @@
       <c r="J16" s="5"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+    <row r="17" spans="1:13" ht="13.5" hidden="1" thickBot="1">
+      <c r="A17" s="64"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1228,8 +1226,8 @@
       <c r="J17" s="11"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+    <row r="18" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A18" s="64"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1241,8 +1239,8 @@
       <c r="J18" s="14"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+    <row r="19" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A19" s="64"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1254,8 +1252,8 @@
       <c r="J19" s="42"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+    <row r="20" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A20" s="65"/>
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -1267,8 +1265,8 @@
       <c r="J20" s="46"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A21" s="63">
         <v>4</v>
       </c>
       <c r="B21" s="3">
@@ -1296,8 +1294,8 @@
       <c r="J21" s="5"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A22" s="64"/>
       <c r="B22" s="3">
         <v>41072</v>
       </c>
@@ -1321,8 +1319,8 @@
       <c r="J22" s="5"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A23" s="64"/>
       <c r="B23" s="3">
         <v>41073</v>
       </c>
@@ -1348,8 +1346,8 @@
       <c r="J23" s="5"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A24" s="64"/>
       <c r="B24" s="3">
         <v>41076</v>
       </c>
@@ -1372,8 +1370,8 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A25" s="64"/>
       <c r="B25" s="3">
         <v>41077</v>
       </c>
@@ -1398,8 +1396,8 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+    <row r="26" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A26" s="64"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1410,8 +1408,8 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+    <row r="27" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A27" s="64"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1422,8 +1420,8 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
+    <row r="28" spans="1:13" ht="20.25" hidden="1" customHeight="1">
+      <c r="A28" s="64"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1434,8 +1432,8 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+    <row r="29" spans="1:13" ht="0.75" hidden="1" customHeight="1">
+      <c r="A29" s="64"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -1446,8 +1444,8 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
+    <row r="30" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A30" s="64"/>
       <c r="B30" s="43"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -1458,8 +1456,8 @@
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
+    <row r="31" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A31" s="64"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1470,8 +1468,8 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:13" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
+    <row r="32" spans="1:13" ht="26.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A32" s="64"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1482,8 +1480,8 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
+    <row r="33" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A33" s="64"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1494,8 +1492,8 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
+    <row r="34" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A34" s="64"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1506,8 +1504,8 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+    <row r="35" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="A35" s="66"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1518,7 +1516,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A36" s="28"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1531,7 +1529,7 @@
       <c r="J36" s="5"/>
       <c r="M36" s="27"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="28"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
@@ -1544,7 +1542,7 @@
       <c r="J37" s="11"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="20.25" hidden="1" customHeight="1">
       <c r="A38" s="28">
         <v>3</v>
       </c>
@@ -1559,7 +1557,7 @@
       <c r="J38" s="14"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="20.25" hidden="1" customHeight="1">
       <c r="A39" s="28"/>
       <c r="B39" s="39"/>
       <c r="C39" s="40"/>
@@ -1572,7 +1570,7 @@
       <c r="J39" s="42"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="29"/>
       <c r="B40" s="43"/>
       <c r="C40" s="44"/>
@@ -1585,7 +1583,7 @@
       <c r="J40" s="46"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="28"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1598,7 +1596,7 @@
       <c r="J41" s="5"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A42" s="30"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -1610,7 +1608,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="20.25" hidden="1" customHeight="1">
       <c r="A43" s="28">
         <v>4</v>
       </c>
@@ -1624,7 +1622,7 @@
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="20.25" hidden="1" customHeight="1">
       <c r="A44" s="30"/>
       <c r="B44" s="39"/>
       <c r="C44" s="40"/>
@@ -1636,7 +1634,7 @@
       <c r="I44" s="42"/>
       <c r="J44" s="42"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="20.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" s="50"/>
       <c r="C45" s="44"/>
@@ -1648,11 +1646,11 @@
       <c r="I45" s="46"/>
       <c r="J45" s="46"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56">
+    <row r="46" spans="1:13" ht="36" customHeight="1" thickBot="1">
+      <c r="A46" s="57">
         <v>5</v>
       </c>
-      <c r="B46" s="60">
+      <c r="B46" s="61">
         <v>41078</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -1675,9 +1673,9 @@
       <c r="J46" s="5"/>
       <c r="M46" s="27"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="61"/>
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A47" s="58"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1690,7 +1688,7 @@
       <c r="F47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="56" t="s">
         <v>51</v>
       </c>
       <c r="H47" s="5"/>
@@ -1698,8 +1696,8 @@
       <c r="J47" s="5"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="59"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1711,8 +1709,8 @@
       <c r="J48" s="5"/>
       <c r="M48" s="27"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="59"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1724,8 +1722,8 @@
       <c r="J49" s="5"/>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A50" s="60"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1737,7 +1735,7 @@
       <c r="J50" s="5"/>
       <c r="M50" s="27"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="28"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1750,7 +1748,7 @@
       <c r="J51" s="5"/>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="30"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -1762,7 +1760,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="28">
         <v>6</v>
       </c>
@@ -1776,7 +1774,7 @@
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="30"/>
       <c r="B54" s="39"/>
       <c r="C54" s="40"/>
@@ -1788,7 +1786,7 @@
       <c r="I54" s="42"/>
       <c r="J54" s="42"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="29"/>
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
@@ -1800,102 +1798,102 @@
       <c r="I55" s="46"/>
       <c r="J55" s="46"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1">
       <c r="A56" s="28"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1">
       <c r="A57" s="28"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1">
       <c r="A58" s="28">
         <v>7</v>
       </c>
       <c r="M58" s="27"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1">
       <c r="A59" s="28"/>
       <c r="M59" s="27"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="29"/>
       <c r="M60" s="27"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1">
       <c r="A61" s="28"/>
       <c r="M61" s="27"/>
     </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="20.25" customHeight="1">
       <c r="A62" s="30"/>
     </row>
-    <row r="63" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="20.25" customHeight="1">
       <c r="A63" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="20.25" customHeight="1">
       <c r="A64" s="30"/>
     </row>
-    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A65" s="29"/>
     </row>
-    <row r="66" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="20.25" customHeight="1">
       <c r="A66" s="28"/>
       <c r="M66" s="27"/>
     </row>
-    <row r="67" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="20.25" customHeight="1">
       <c r="A67" s="30"/>
     </row>
-    <row r="68" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="20.25" customHeight="1">
       <c r="A68" s="28">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="20.25" customHeight="1">
       <c r="A69" s="30"/>
     </row>
-    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A70" s="29"/>
     </row>
-    <row r="71" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="20.25" customHeight="1">
       <c r="A71" s="28"/>
       <c r="M71" s="27"/>
     </row>
-    <row r="72" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="20.25" customHeight="1">
       <c r="A72" s="28"/>
       <c r="M72" s="27"/>
     </row>
-    <row r="73" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="20.25" customHeight="1">
       <c r="A73" s="28">
         <v>10</v>
       </c>
       <c r="M73" s="27"/>
     </row>
-    <row r="74" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="20.25" customHeight="1">
       <c r="A74" s="28"/>
       <c r="M74" s="27"/>
     </row>
-    <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A75" s="29"/>
       <c r="M75" s="27"/>
     </row>
-    <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="20.25" customHeight="1">
       <c r="A76" s="28"/>
       <c r="M76" s="27"/>
     </row>
-    <row r="77" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="20.25" customHeight="1">
       <c r="A77" s="30"/>
     </row>
-    <row r="78" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="20.25" customHeight="1">
       <c r="A78" s="28">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="20.25" customHeight="1">
       <c r="A79" s="30"/>
     </row>
-    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A80" s="29"/>
     </row>
   </sheetData>
@@ -1913,14 +1911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="23"/>
@@ -1937,19 +1935,19 @@
     <col min="13" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="D3" s="24"/>
       <c r="L3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
       <c r="C5" s="26"/>
       <c r="L5" s="24" t="s">
         <v>13</v>
@@ -1972,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="26.25" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2003,7 @@
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A7" s="28"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2018,7 +2016,7 @@
       <c r="J7" s="5"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="28"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2031,7 +2029,7 @@
       <c r="J8" s="5"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -2046,7 +2044,7 @@
       <c r="J9" s="5"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="28"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -2059,7 +2057,7 @@
       <c r="J10" s="8"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A11" s="29"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -2075,7 +2073,7 @@
       </c>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2091,7 +2089,7 @@
       </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A13" s="30"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -2103,7 +2101,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -2117,7 +2115,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -2129,7 +2127,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A16" s="29"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -2141,7 +2139,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A17" s="28"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2154,7 +2152,7 @@
       <c r="J17" s="5"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A18" s="28"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2167,7 +2165,7 @@
       <c r="J18" s="5"/>
       <c r="M18" s="27"/>
     </row>
-    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A19" s="28">
         <v>3</v>
       </c>
@@ -2182,7 +2180,7 @@
       <c r="J19" s="5"/>
       <c r="M19" s="27"/>
     </row>
-    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A20" s="28"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -2195,7 +2193,7 @@
       <c r="J20" s="8"/>
       <c r="M20" s="27"/>
     </row>
-    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A21" s="29"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -2208,7 +2206,7 @@
       <c r="J21" s="8"/>
       <c r="M21" s="27"/>
     </row>
-    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A22" s="28"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2221,7 +2219,7 @@
       <c r="J22" s="5"/>
       <c r="M22" s="27"/>
     </row>
-    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -2233,7 +2231,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -2247,7 +2245,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -2259,7 +2257,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A26" s="29"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -2271,7 +2269,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -2284,7 +2282,7 @@
       <c r="J27" s="5"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A28" s="28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -2297,7 +2295,7 @@
       <c r="J28" s="5"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="28">
         <v>5</v>
       </c>
@@ -2312,7 +2310,7 @@
       <c r="J29" s="5"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="28"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -2325,7 +2323,7 @@
       <c r="J30" s="8"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="29"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -2338,7 +2336,7 @@
       <c r="J31" s="8"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -2351,7 +2349,7 @@
       <c r="J32" s="5"/>
       <c r="M32" s="27"/>
     </row>
-    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A33" s="30"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -2363,7 +2361,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A34" s="28">
         <v>6</v>
       </c>
@@ -2377,7 +2375,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -2389,7 +2387,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A36" s="29"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
@@ -2401,7 +2399,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="28"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -2414,7 +2412,7 @@
       <c r="J37" s="5"/>
       <c r="M37" s="27"/>
     </row>
-    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -2427,7 +2425,7 @@
       <c r="J38" s="5"/>
       <c r="M38" s="27"/>
     </row>
-    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="28">
         <v>7</v>
       </c>
@@ -2442,7 +2440,7 @@
       <c r="J39" s="5"/>
       <c r="M39" s="27"/>
     </row>
-    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A40" s="28"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -2455,7 +2453,7 @@
       <c r="J40" s="8"/>
       <c r="M40" s="27"/>
     </row>
-    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A41" s="29"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2468,7 +2466,7 @@
       <c r="J41" s="8"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="28"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -2481,7 +2479,7 @@
       <c r="J42" s="5"/>
       <c r="M42" s="27"/>
     </row>
-    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A43" s="30"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -2493,7 +2491,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="28">
         <v>8</v>
       </c>
@@ -2507,7 +2505,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -2519,7 +2517,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="29"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
@@ -2531,7 +2529,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="28"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -2544,7 +2542,7 @@
       <c r="J47" s="5"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A48" s="30"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -2556,7 +2554,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A49" s="28">
         <v>9</v>
       </c>
@@ -2570,7 +2568,7 @@
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="30"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
@@ -2582,7 +2580,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="29"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
@@ -2594,7 +2592,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A52" s="28"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -2607,7 +2605,7 @@
       <c r="J52" s="5"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A53" s="28"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -2620,7 +2618,7 @@
       <c r="J53" s="5"/>
       <c r="M53" s="27"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="28">
         <v>10</v>
       </c>
@@ -2635,7 +2633,7 @@
       <c r="J54" s="5"/>
       <c r="M54" s="27"/>
     </row>
-    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="28"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -2648,7 +2646,7 @@
       <c r="J55" s="8"/>
       <c r="M55" s="27"/>
     </row>
-    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A56" s="29"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -2661,7 +2659,7 @@
       <c r="J56" s="8"/>
       <c r="M56" s="27"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A57" s="28"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -2674,7 +2672,7 @@
       <c r="J57" s="5"/>
       <c r="M57" s="27"/>
     </row>
-    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -2686,7 +2684,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A59" s="28">
         <v>11</v>
       </c>
@@ -2700,7 +2698,7 @@
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
@@ -2712,7 +2710,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
       <c r="A61" s="29"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>

--- a/trunk/Time Log for SAD + SEP/SEP-TimeLog-ToanDang.xlsx
+++ b/trunk/Time Log for SAD + SEP/SEP-TimeLog-ToanDang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="OLE_LINK1" localSheetId="0">SEP!#REF!</definedName>
     <definedName name="OLE_LINK3" localSheetId="0">SEP!$A$6</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -70,9 +70,6 @@
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
-    <t>Do Minh Tam</t>
-  </si>
-  <si>
     <t>Time Recording Log For:    SEP Project</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Mentor Meeting</t>
+  </si>
+  <si>
+    <t>Dang Nguyen Toan</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +919,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>15</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -984,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="27"/>
     </row>
@@ -1005,16 +1005,16 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
       <c r="L7" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="27"/>
     </row>
@@ -1031,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="L8" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="27"/>
     </row>
@@ -1057,16 +1057,16 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="L9" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="27"/>
     </row>
@@ -1083,16 +1083,16 @@
         <v>0.25</v>
       </c>
       <c r="F10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="49" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>31</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="49"/>
       <c r="J10" s="49"/>
       <c r="L10" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M10" s="27"/>
     </row>
@@ -1109,16 +1109,16 @@
         <v>2.75</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
       <c r="L11" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="27"/>
     </row>
@@ -1137,18 +1137,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="L12" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="27"/>
     </row>
@@ -1164,7 +1164,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="L13" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" s="27"/>
     </row>
@@ -1282,13 +1282,13 @@
         <v>1.74</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1303,16 +1303,16 @@
         <v>0.625</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="33">
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1328,19 +1328,19 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="33">
         <v>1.3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1352,19 +1352,19 @@
         <v>41076</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E24" s="33">
         <v>2</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1376,22 +1376,22 @@
         <v>41077</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E25" s="33">
         <v>1.3</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1654,19 +1654,19 @@
         <v>41078</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E46" s="33">
         <v>3.25</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -1677,7 +1677,7 @@
       <c r="A47" s="58"/>
       <c r="B47" s="62"/>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" s="4">
         <v>12</v>
@@ -1686,10 +1686,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G47" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1937,7 +1937,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="E2" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -1952,7 +1952,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E4" s="32" t="s">
         <v>15</v>
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
